--- a/result.xlsx
+++ b/result.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="WP" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="IMC" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="17">
   <si>
     <t xml:space="preserve">WP_20</t>
   </si>
@@ -62,6 +63,15 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socio_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socio_10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socio_100000</t>
   </si>
 </sst>
 </file>
@@ -76,6 +86,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -173,11 +184,11 @@
   </sheetPr>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S18" activeCellId="0" sqref="S18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.3"/>
@@ -1009,4 +1020,540 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2.353</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>4.387</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>4.057</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>3.265</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>3.126</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.071</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>2.719</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>2.672</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>2.753</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>3.352</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>2.548</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2.623</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>2.316</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>2.504</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>2.467</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.069</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1.992</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>2.002</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0.081</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1.387</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="n">
+        <f aca="false">SUM(C4:C26)</f>
+        <v>1.815</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="n">
+        <f aca="false">SUM(E4:E26)</f>
+        <v>2.931</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <f aca="false">SUM(F4:F26)</f>
+        <v>3.974</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="n">
+        <f aca="false">SUM(H4:H26)</f>
+        <v>12.407</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <f aca="false">SUM(I4:I26)</f>
+        <v>12.181</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <f aca="false">SUM(J4:J26)</f>
+        <v>13.266</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <f aca="false">SUM(K4:K26)</f>
+        <v>15.654</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <f aca="false">SUM(L4:L26)</f>
+        <v>16.807</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>